--- a/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
+++ b/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -24,6 +24,27 @@
   </si>
   <si>
     <t>Fees create and delete functionality</t>
+  </si>
+  <si>
+    <t>Create a Citizenship with parameter</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>29_04_2025_17_35</t>
+  </si>
+  <si>
+    <t>29_04_2025_17_36</t>
+  </si>
+  <si>
+    <t>29_04_2025_17_37</t>
+  </si>
+  <si>
+    <t>29_04_2025_17_38</t>
+  </si>
+  <si>
+    <t>29_04_2025_17_39</t>
   </si>
 </sst>
 </file>
@@ -68,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -130,6 +151,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
+++ b/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t>29_04_2025_17_39</t>
+  </si>
+  <si>
+    <t>Nationality testing with JDBC</t>
+  </si>
+  <si>
+    <t>14_05_2025_18_23</t>
+  </si>
+  <si>
+    <t>14_05_2025_18_24</t>
+  </si>
+  <si>
+    <t>14_05_2025_18_25</t>
+  </si>
+  <si>
+    <t>14_05_2025_18_27</t>
   </si>
 </sst>
 </file>
@@ -89,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -318,6 +333,61 @@
         <v>10</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
+++ b/src/test/java/ApachePOI/Resource/SenaryoSonuc.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="18">
   <si>
     <t>Login with valid username and password</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>14_05_2025_18_27</t>
+  </si>
+  <si>
+    <t>29_05_2025_17_29</t>
+  </si>
+  <si>
+    <t>29_05_2025_17_30</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -388,6 +394,83 @@
         <v>15</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
